--- a/pred_ohlcv/54_21/2019-10-26 ETH ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 ETH ohlcv.xlsx
@@ -1120,7 +1120,7 @@
         <v>909.1259575357669</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>1101.838557535767</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>1184.434657535767</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>1135.637057535767</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>1152.873957535767</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>1079.691957535767</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>1125.179457535767</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>1034.345857535767</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>1068.526057535767</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>1107.052657535767</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>1353.149057535767</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>1265.037457535767</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>1265.037457535767</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>1262.599457535767</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>1262.599457535767</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>1367.502057535767</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>1354.878157535767</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>1607.683265723237</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>1606.187665723237</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>1604.687665723237</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>1604.687665723237</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>1604.687665723237</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>1603.451965723237</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>1545.172365723237</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>4135.304925900538</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>5386.734525900538</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>4586.831441396906</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>6975.578441396905</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>7341.490341396905</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>8082.719441396905</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>9424.176741396905</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>6461.898819947905</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>6743.386519947905</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>7134.993719947905</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>6957.599619947905</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>6244.067719947905</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>5902.342719947905</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>6172.998119947904</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>6274.941719947904</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>6232.168219947904</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>6232.168219947904</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>6051.937219947904</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>6051.937219947904</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>6096.237219947904</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>6157.791119947904</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>6270.042019947904</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>6238.736519947904</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>13482.45907424682</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>13101.48687424682</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>13254.72687424682</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>13513.18737424682</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>14769.46114425148</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>15962.19004425148</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>16583.73017215846</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>15903.10504425148</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>15903.10504425148</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>15442.88134425148</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>26312.54186896471</v>
       </c>
       <c r="H696">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>25733.90466896471</v>
       </c>
       <c r="H697">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>25414.9970166736</v>
       </c>
       <c r="H698">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>24629.99037266459</v>
       </c>
       <c r="H699">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>24629.99037266459</v>
       </c>
       <c r="H700">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>25408.39707266459</v>
       </c>
       <c r="H702">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>25928.39250833737</v>
       </c>
       <c r="H703">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>25572.06449302206</v>
       </c>
       <c r="H704">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>25835.02498812758</v>
       </c>
       <c r="H705">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>26316.78458812758</v>
       </c>
       <c r="H706">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>26711.52038812758</v>
       </c>
       <c r="H707">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>26550.95378812758</v>
       </c>
       <c r="H708">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>26550.95378812758</v>
       </c>
       <c r="H709">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>26775.56288812758</v>
       </c>
       <c r="H710">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>27192.01888812758</v>
       </c>
       <c r="H711">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>27867.97428812758</v>
       </c>
       <c r="H712">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>28127.85448812758</v>
       </c>
       <c r="H713">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -18956,7 +18956,7 @@
         <v>28646.63888812758</v>
       </c>
       <c r="H714">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="715" spans="1:8">
@@ -18982,7 +18982,7 @@
         <v>27982.19948812758</v>
       </c>
       <c r="H715">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="716" spans="1:8">
@@ -19008,7 +19008,7 @@
         <v>28485.05868812758</v>
       </c>
       <c r="H716">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>27876.73798812758</v>
       </c>
       <c r="H717">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19060,7 +19060,7 @@
         <v>27558.59318812758</v>
       </c>
       <c r="H718">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="719" spans="1:8">
@@ -19086,7 +19086,7 @@
         <v>28071.98078812758</v>
       </c>
       <c r="H719">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="720" spans="1:8">
@@ -19112,7 +19112,7 @@
         <v>27891.59858812758</v>
       </c>
       <c r="H720">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="721" spans="1:8">
@@ -19138,7 +19138,7 @@
         <v>27751.22958812758</v>
       </c>
       <c r="H721">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="722" spans="1:8">
@@ -19164,7 +19164,7 @@
         <v>26878.31713680579</v>
       </c>
       <c r="H722">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="723" spans="1:8">
@@ -19190,7 +19190,7 @@
         <v>28274.72073680579</v>
       </c>
       <c r="H723">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="724" spans="1:8">
@@ -19216,7 +19216,7 @@
         <v>28563.00053680579</v>
       </c>
       <c r="H724">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="725" spans="1:8">
@@ -19242,7 +19242,7 @@
         <v>28301.42443898464</v>
       </c>
       <c r="H725">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="726" spans="1:8">
@@ -19268,7 +19268,7 @@
         <v>28509.11883898464</v>
       </c>
       <c r="H726">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="727" spans="1:8">
@@ -19294,7 +19294,7 @@
         <v>27976.59022988959</v>
       </c>
       <c r="H727">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="728" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>28226.53312988959</v>
       </c>
       <c r="H728">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -19346,7 +19346,7 @@
         <v>28525.81522988959</v>
       </c>
       <c r="H729">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="730" spans="1:8">
@@ -19372,7 +19372,7 @@
         <v>28785.18322988959</v>
       </c>
       <c r="H730">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="731" spans="1:8">
@@ -19398,7 +19398,7 @@
         <v>28845.15871057706</v>
       </c>
       <c r="H731">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="732" spans="1:8">
@@ -19424,7 +19424,7 @@
         <v>28611.22991057706</v>
       </c>
       <c r="H732">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="733" spans="1:8">
@@ -19450,7 +19450,7 @@
         <v>28691.82471057706</v>
       </c>
       <c r="H733">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="734" spans="1:8">
@@ -19528,7 +19528,7 @@
         <v>27773.77773365048</v>
       </c>
       <c r="H736">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="737" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-26 ETH ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 ETH ohlcv.xlsx
@@ -3512,7 +3512,7 @@
         <v>1619.413065723237</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>1222.734265723238</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>4135.304925900538</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>5386.734525900538</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>4586.831441396906</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>6975.578441396905</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>7341.490341396905</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>8082.719441396905</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>9424.176741396905</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>6461.898819947905</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>6743.386519947905</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>7134.993719947905</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>6957.599619947905</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>6244.067719947905</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>5902.342719947905</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>6172.998119947904</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>6274.941719947904</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>6232.168219947904</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>6232.168219947904</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>6051.937219947904</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>6051.937219947904</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>6096.237219947904</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>6157.791119947904</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>6270.042019947904</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>6238.736519947904</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>13482.45907424682</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>13101.48687424682</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>13254.72687424682</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>13513.18737424682</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>14769.46114425148</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>15962.19004425148</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>16583.73017215846</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>15903.10504425148</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>15903.10504425148</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>15442.88134425148</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -18358,7 +18358,7 @@
         <v>23128.97766314204</v>
       </c>
       <c r="H691">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>27330.54376346776</v>
       </c>
       <c r="H695">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>26312.54186896471</v>
       </c>
       <c r="H696">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>25733.90466896471</v>
       </c>
       <c r="H697">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>25414.9970166736</v>
       </c>
       <c r="H698">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>24629.99037266459</v>
       </c>
       <c r="H699">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>24629.99037266459</v>
       </c>
       <c r="H700">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>25096.19317266459</v>
       </c>
       <c r="H701">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>25408.39707266459</v>
       </c>
       <c r="H702">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>25928.39250833737</v>
       </c>
       <c r="H703">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>25572.06449302206</v>
       </c>
       <c r="H704">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>25835.02498812758</v>
       </c>
       <c r="H705">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>26316.78458812758</v>
       </c>
       <c r="H706">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>26711.52038812758</v>
       </c>
       <c r="H707">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>26550.95378812758</v>
       </c>
       <c r="H708">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>26550.95378812758</v>
       </c>
       <c r="H709">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>26775.56288812758</v>
       </c>
       <c r="H710">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>27192.01888812758</v>
       </c>
       <c r="H711">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>27867.97428812758</v>
       </c>
       <c r="H712">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>28127.85448812758</v>
       </c>
       <c r="H713">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -18956,7 +18956,7 @@
         <v>28646.63888812758</v>
       </c>
       <c r="H714">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="715" spans="1:8">
@@ -18982,7 +18982,7 @@
         <v>27982.19948812758</v>
       </c>
       <c r="H715">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="716" spans="1:8">
@@ -19008,7 +19008,7 @@
         <v>28485.05868812758</v>
       </c>
       <c r="H716">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>27876.73798812758</v>
       </c>
       <c r="H717">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19060,7 +19060,7 @@
         <v>27558.59318812758</v>
       </c>
       <c r="H718">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="719" spans="1:8">
@@ -19086,7 +19086,7 @@
         <v>28071.98078812758</v>
       </c>
       <c r="H719">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="720" spans="1:8">
@@ -19112,7 +19112,7 @@
         <v>27891.59858812758</v>
       </c>
       <c r="H720">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="721" spans="1:8">
@@ -19138,7 +19138,7 @@
         <v>27751.22958812758</v>
       </c>
       <c r="H721">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="722" spans="1:8">
@@ -19164,7 +19164,7 @@
         <v>26878.31713680579</v>
       </c>
       <c r="H722">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="723" spans="1:8">
@@ -19190,7 +19190,7 @@
         <v>28274.72073680579</v>
       </c>
       <c r="H723">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="724" spans="1:8">
@@ -19216,7 +19216,7 @@
         <v>28563.00053680579</v>
       </c>
       <c r="H724">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="725" spans="1:8">
@@ -19242,7 +19242,7 @@
         <v>28301.42443898464</v>
       </c>
       <c r="H725">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="726" spans="1:8">
@@ -19268,7 +19268,7 @@
         <v>28509.11883898464</v>
       </c>
       <c r="H726">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="727" spans="1:8">
@@ -19294,7 +19294,7 @@
         <v>27976.59022988959</v>
       </c>
       <c r="H727">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="728" spans="1:8">
@@ -19346,7 +19346,7 @@
         <v>28525.81522988959</v>
       </c>
       <c r="H729">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="730" spans="1:8">
@@ -19372,7 +19372,7 @@
         <v>28785.18322988959</v>
       </c>
       <c r="H730">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="731" spans="1:8">
@@ -19398,7 +19398,7 @@
         <v>28845.15871057706</v>
       </c>
       <c r="H731">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="732" spans="1:8">
@@ -19424,7 +19424,7 @@
         <v>28611.22991057706</v>
       </c>
       <c r="H732">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="733" spans="1:8">
@@ -19450,7 +19450,7 @@
         <v>28691.82471057706</v>
       </c>
       <c r="H733">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="734" spans="1:8">
@@ -19476,7 +19476,7 @@
         <v>28407.52471057706</v>
       </c>
       <c r="H734">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="735" spans="1:8">
@@ -19502,7 +19502,7 @@
         <v>27824.04943365048</v>
       </c>
       <c r="H735">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="736" spans="1:8">
@@ -19528,7 +19528,7 @@
         <v>27773.77773365048</v>
       </c>
       <c r="H736">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="737" spans="1:8">
@@ -19554,7 +19554,7 @@
         <v>28200.52163365048</v>
       </c>
       <c r="H737">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="738" spans="1:8">
@@ -19580,7 +19580,7 @@
         <v>28314.87023365048</v>
       </c>
       <c r="H738">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="739" spans="1:8">
@@ -19606,7 +19606,7 @@
         <v>28398.47223365048</v>
       </c>
       <c r="H739">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="740" spans="1:8">
@@ -19632,7 +19632,7 @@
         <v>28458.71083365048</v>
       </c>
       <c r="H740">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="741" spans="1:8">
@@ -19658,7 +19658,7 @@
         <v>28610.16313365048</v>
       </c>
       <c r="H741">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="742" spans="1:8">
@@ -19684,7 +19684,7 @@
         <v>28534.26598158136</v>
       </c>
       <c r="H742">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="743" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>28369.01297222198</v>
       </c>
       <c r="H743">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>28256.36017222198</v>
       </c>
       <c r="H744">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>28126.87497222198</v>
       </c>
       <c r="H745">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="746" spans="1:8">
